--- a/0-rtt/Timing_Result.xlsx
+++ b/0-rtt/Timing_Result.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lian/Documents/UCL/Year4/FYP/topics/wclient/0-rtt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54508D6-4533-FD43-9D94-607DB41375B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59794663-F892-2848-8702-10A9A8473D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{B5D99BAA-E045-1548-A128-4F59B72E77D0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="1" xr2:uid="{B5D99BAA-E045-1548-A128-4F59B72E77D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="45">
   <si>
     <t>google.com</t>
   </si>
@@ -86,20 +86,102 @@
     <t>0-RTT cold cache</t>
   </si>
   <si>
-    <t>0.8.33</t>
-  </si>
-  <si>
     <t>Control warm cache</t>
   </si>
   <si>
     <t>Control cold cache</t>
+  </si>
+  <si>
+    <t>percentage change</t>
+  </si>
+  <si>
+    <t>cond</t>
+  </si>
+  <si>
+    <t>confidence intervel</t>
+  </si>
+  <si>
+    <t>[0.84626,0.87455]</t>
+  </si>
+  <si>
+    <t>[0.82494,0.85705]</t>
+  </si>
+  <si>
+    <t>0RTT</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>walmart.com</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> warm cache control</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> warm cache 0-RTT</t>
+  </si>
+  <si>
+    <t>[0.087946787582856,0.120053212417143]</t>
+  </si>
+  <si>
+    <t>[0.069883325616390,0.090116674383610]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cold cache 0-RTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cold cache control</t>
+  </si>
+  <si>
+    <t>[0.243863245748672,0.638136754251328]</t>
+  </si>
+  <si>
+    <t>[0.492390513433845,0.787609486566155]</t>
+  </si>
+  <si>
+    <t>[0.787496197776140,0.836503802223860]</t>
+  </si>
+  <si>
+    <t>[0.816416027418642,0.839583972581359]</t>
+  </si>
+  <si>
+    <t>[0.798738951894510,0.833261048105490]</t>
+  </si>
+  <si>
+    <t>[0.689435411396789,0.884564588603211]</t>
+  </si>
+  <si>
+    <t>[0.366461718744645,0.773538281255355]</t>
+  </si>
+  <si>
+    <t>[0.081900112705686,0.112099887294314]</t>
+  </si>
+  <si>
+    <t>FCP CI</t>
+  </si>
+  <si>
+    <t>LCP CI</t>
+  </si>
+  <si>
+    <t>TTI CI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -115,6 +197,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -124,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -147,18 +236,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -166,10 +275,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -179,10 +284,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -496,681 +617,903 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D59A7B-17D5-2446-8D1C-EFE0C15400D5}">
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.83203125" customWidth="1"/>
+    <col min="9" max="11" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="6"/>
-      <c r="B1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="I1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>0.82599999999999996</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>0.79200000000000004</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>0.98399999999999999</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="E3" s="6">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="F3" s="6">
         <v>0.82599999999999996</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
+      <c r="I3" s="13">
+        <f>(E3-B3)/B3</f>
+        <v>8.4745762711864493E-3</v>
+      </c>
+      <c r="J3" s="13">
+        <f>(F3-C3)/C3</f>
+        <v>4.2929292929292824E-2</v>
+      </c>
+      <c r="K3" s="13">
+        <f>(G3-D3)/D3</f>
+        <v>-1.016260162601627E-3</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.16869999999999999</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.214</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.47420000000000001</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>0.1716</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>0.23100000000000001</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>0.4778</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="I4" s="13">
+        <f t="shared" ref="I4:I6" si="0">(E4-B4)/B4</f>
+        <v>1.7190278601067064E-2</v>
+      </c>
+      <c r="J4" s="13">
+        <f t="shared" ref="J4:J6" si="1">(F4-C4)/C4</f>
+        <v>7.9439252336448676E-2</v>
+      </c>
+      <c r="K4" s="13">
+        <f t="shared" ref="K4:K6" si="2">(G4-D4)/D4</f>
+        <v>7.5917334458034417E-3</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.30659999999999998</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.25180000000000002</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>0.30609999999999998</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>0.2621</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
+      <c r="I5" s="13">
+        <f t="shared" si="0"/>
+        <v>-1.6307893020221802E-3</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" si="1"/>
+        <v>4.0905480540111103E-2</v>
+      </c>
+      <c r="K5" s="13">
+        <f t="shared" si="2"/>
+        <v>8.7912087912087877E-2</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0.87719999999999998</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.50470000000000004</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0.69950000000000001</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.87480000000000002</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>0.49669999999999997</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>0.68459999999999999</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="I6" s="13">
+        <f t="shared" si="0"/>
+        <v>-2.7359781121750544E-3</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.5851000594412645E-2</v>
+      </c>
+      <c r="K6" s="13">
+        <f t="shared" si="2"/>
+        <v>-2.1300929235168013E-2</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>0.72619999999999996</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.80130000000000001</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.92849999999999999</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="I15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
+      <c r="I16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>0.82599999999999996</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>0.85599999999999998</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>0.98399999999999999</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>0.80600000000000005</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>0.876</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>0.95899999999999996</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
+      <c r="I17" s="13">
+        <f>(E17-B17)/B17</f>
+        <v>-2.4213075060532576E-2</v>
+      </c>
+      <c r="J17" s="13">
+        <f>(F17-C17)/C17</f>
+        <v>2.3364485981308431E-2</v>
+      </c>
+      <c r="K17" s="13">
+        <f>(G17-D17)/D17</f>
+        <v>-2.5406504065040674E-2</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>0.16400000000000001</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>0.29899999999999999</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>0.439</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>0.16300000000000001</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>0.315</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>0.42799999999999999</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
+      <c r="I18" s="13">
+        <f t="shared" ref="I18:I20" si="3">(E18-B18)/B18</f>
+        <v>-6.0975609756097615E-3</v>
+      </c>
+      <c r="J18" s="13">
+        <f t="shared" ref="J18:J20" si="4">(F18-C18)/C18</f>
+        <v>5.3511705685618777E-2</v>
+      </c>
+      <c r="K18" s="13">
+        <f t="shared" ref="K18:K20" si="5">(G18-D18)/D18</f>
+        <v>-2.5056947608200479E-2</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>0.30570000000000003</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>0.3095</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>5.28E-2</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>0.29980000000000001</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>0.2984</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
+      <c r="I19" s="13">
+        <f t="shared" si="3"/>
+        <v>-1.929996728819109E-2</v>
+      </c>
+      <c r="J19" s="13">
+        <f t="shared" si="4"/>
+        <v>-3.5864297253634894E-2</v>
+      </c>
+      <c r="K19" s="13">
+        <f t="shared" si="5"/>
+        <v>-6.8181818181818163E-2</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>0.87439999999999996</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>0.54479999999999995</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>0.69310000000000005</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>0.85870000000000002</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>0.52739999999999998</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>0.68500000000000005</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
+      <c r="I20" s="13">
+        <f t="shared" si="3"/>
+        <v>-1.795516925892033E-2</v>
+      </c>
+      <c r="J20" s="13">
+        <f t="shared" si="4"/>
+        <v>-3.1938325991189377E-2</v>
+      </c>
+      <c r="K20" s="13">
+        <f t="shared" si="5"/>
+        <v>-1.1686625306593559E-2</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
+      <c r="B29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
+      <c r="B30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
@@ -1336,15 +1679,421 @@
       <c r="A102" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I15:K15"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49C452B-2499-DA4C-AA8B-C2EEBBC555B1}">
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="E15" s="4">
+        <v>6.9879999999999998E-2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>9.0120000000000006E-2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="K15" s="4">
+        <v>8.7940000000000004E-2</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.12005</v>
+      </c>
+      <c r="N15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="N17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="N18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.1002</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.1138</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.36649999999999999</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.77349999999999997</v>
+      </c>
+      <c r="K20" s="4">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0.11210000000000001</v>
+      </c>
+      <c r="N20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="N22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/0-rtt/Timing_Result.xlsx
+++ b/0-rtt/Timing_Result.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lian/Documents/UCL/Year4/FYP/topics/wclient/0-rtt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59794663-F892-2848-8702-10A9A8473D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4BF0D8-02CD-F646-8814-9D3C416EBE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="1" xr2:uid="{B5D99BAA-E045-1548-A128-4F59B72E77D0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20940" activeTab="2" xr2:uid="{B5D99BAA-E045-1548-A128-4F59B72E77D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="85">
   <si>
     <t>google.com</t>
   </si>
@@ -171,6 +172,126 @@
   </si>
   <si>
     <t>TTI CI</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCP CI </t>
+  </si>
+  <si>
+    <t>fcp 0.76 0.82 0.78 0.76 0.84 0.84 0.84 0.8 0.84 0.84 </t>
+  </si>
+  <si>
+    <t>lcp 0.73 0.27 0.35 0.76 0.14 0.13 0.15 0.77 0.39 0.72 </t>
+  </si>
+  <si>
+    <t>tti 0.08 0.08 0.07 0.07 0.07 0.07 0.07 0.08 0.1 0.11 </t>
+  </si>
+  <si>
+    <t>warm cache control</t>
+  </si>
+  <si>
+    <t>fcp 0.83 0.83 0.83 0.84 0.84 0.84 0.81 0.83 0.84 0.79</t>
+  </si>
+  <si>
+    <t>lcp 0.74 0.81 0.84 0.8  0.42 0.69 0.27 0.4  0.61 0.82</t>
+  </si>
+  <si>
+    <t>tti 0.11 0.11 0.12 0.11 0.1  0.11 0.1  0.11 0.1 0.07</t>
+  </si>
+  <si>
+    <t>cc 0RTT</t>
+  </si>
+  <si>
+    <t>fcp 0.84 0.83 0.83 0.77 0.78 0.82 0.83 0.83 0.83 0.8 </t>
+  </si>
+  <si>
+    <t>lcp 0.35 0.71 0.72 0.79 0.63 0.71 0.85 0.79 0.87 0.8 </t>
+  </si>
+  <si>
+    <t>tti 0.12 0.1 0.1 0.11 0.11 0.1 0.11 0.11 0.12 0.09 </t>
+  </si>
+  <si>
+    <t>cc control</t>
+  </si>
+  <si>
+    <t>fcp 0.84 0.83 0.84 0.82 0.82 0.84 0.81 0.84 0.4 0.83 </t>
+  </si>
+  <si>
+    <t>lcp 0.81 0.68 0.68 0.37 0.83 0.19 0.76 0.64 0 0.74 </t>
+  </si>
+  <si>
+    <t>tti 0.1 0.1 0.1 0.1 0.1 0.12 0.11 0.1 0.04 0.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fcp </t>
+  </si>
+  <si>
+    <t>Warm Cache FCP</t>
+  </si>
+  <si>
+    <t>Cold Cache FCP</t>
+  </si>
+  <si>
+    <t>Mean:</t>
+  </si>
+  <si>
+    <t>S:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n: </t>
+  </si>
+  <si>
+    <t>a:</t>
+  </si>
+  <si>
+    <t>Margin of error</t>
+  </si>
+  <si>
+    <t>Warm Cache 0RTT</t>
+  </si>
+  <si>
+    <t>Warm Cache Control</t>
+  </si>
+  <si>
+    <t>Cold Cache  0RTT</t>
+  </si>
+  <si>
+    <t>Cold Cache Control</t>
+  </si>
+  <si>
+    <t>Warm Cache LCP</t>
+  </si>
+  <si>
+    <t>Cold Cache LCP</t>
+  </si>
+  <si>
+    <t>  0.42</t>
+  </si>
+  <si>
+    <t>  0.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.8 </t>
+  </si>
+  <si>
+    <t>Warm Cache TTI</t>
+  </si>
+  <si>
+    <t>Cold Cache TTI</t>
+  </si>
+  <si>
+    <t>  0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1 </t>
   </si>
 </sst>
 </file>
@@ -178,10 +299,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -204,6 +325,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -213,7 +340,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -258,13 +385,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -284,21 +435,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -316,6 +480,3710 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>First Contentful</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Paint</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-06E7-A648-9EBE-CDD34EB2FFAA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-06E7-A648-9EBE-CDD34EB2FFAA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-06E7-A648-9EBE-CDD34EB2FFAA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-06E7-A648-9EBE-CDD34EB2FFAA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet3!$I$25:$L$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.4503802223859908E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1583972581358612E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.726104810549009E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.7564588603211308E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet3!$I$25:$L$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.4503802223859908E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1583972581358612E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.726104810549009E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.7564588603211308E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$I$20:$L$20</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Warm Cache 0RTT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Warm Cache Control</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cold Cache  0RTT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cold Cache Control</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$I$21:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.81199999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82800000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81600000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78699999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-06E7-A648-9EBE-CDD34EB2FFAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="551866416"/>
+        <c:axId val="553354000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="551866416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FCP groups</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45290565974736224"/>
+              <c:y val="0.88198382671416253"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="553354000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="553354000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Mean FCP(second)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551866416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Lirst Contentful</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Paint</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5DF2-B944-B07A-314D5734F81F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5DF2-B944-B07A-314D5734F81F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5DF2-B944-B07A-314D5734F81F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5DF2-B944-B07A-314D5734F81F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet3!$I$38:$L$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.19713675425132832</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.18044099011592871</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.9131102923312122E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.20353828125535492</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet3!$I$38:$L$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.19713675425132832</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.18044099011592871</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.9131102923312122E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.20353828125535492</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$I$20:$L$20</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Warm Cache 0RTT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Warm Cache Control</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cold Cache  0RTT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cold Cache Control</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$I$21:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.81199999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82800000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81600000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78699999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-5DF2-B944-B07A-314D5734F81F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="551866416"/>
+        <c:axId val="553354000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="551866416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>LCP groups</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42834152847974466"/>
+              <c:y val="0.87730158156655391"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="553354000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="553354000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Mean LCP(second)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551866416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time to Interactive</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CA9F-4A44-B3C9-16893B67A555}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CA9F-4A44-B3C9-16893B67A555}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-CA9F-4A44-B3C9-16893B67A555}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-CA9F-4A44-B3C9-16893B67A555}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet3!$I$51:$L$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.0116674383609756E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.244038941268109E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.0089545210997878E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.7187940009040482E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet3!$I$51:$L$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.0116674383609756E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.244038941268109E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.0089545210997878E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.7187940009040482E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$I$20:$L$20</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Warm Cache 0RTT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Warm Cache Control</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cold Cache  0RTT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cold Cache Control</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$I$21:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.81199999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82800000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81600000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78699999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-CA9F-4A44-B3C9-16893B67A555}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="551866416"/>
+        <c:axId val="553354000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="551866416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TTi groups</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45436338825663053"/>
+              <c:y val="0.87730158156655391"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="553354000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="553354000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Mean TTI(second)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551866416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>90631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF802900-0689-D74B-B564-B10982ABED3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10083800" y="5334000"/>
+          <a:ext cx="7772400" cy="1462231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>538</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419336</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88372</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECEB4067-BC7A-A48C-5502-2EC34EBF6CF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>418800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>160393</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72226AD2-9C63-5245-9579-0805DBF2FF78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>143774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>418799</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>4638</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6075912-0DDD-A947-AB0B-F78EEE396D6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -618,7 +4486,7 @@
   <dimension ref="A1:O102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:G31"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -633,27 +4501,27 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="I1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
@@ -711,15 +4579,15 @@
       <c r="G3" s="6">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="11">
         <f>(E3-B3)/B3</f>
         <v>8.4745762711864493E-3</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="11">
         <f>(F3-C3)/C3</f>
         <v>4.2929292929292824E-2</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="11">
         <f>(G3-D3)/D3</f>
         <v>-1.016260162601627E-3</v>
       </c>
@@ -750,15 +4618,15 @@
       <c r="G4" s="4">
         <v>0.4778</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="11">
         <f t="shared" ref="I4:I6" si="0">(E4-B4)/B4</f>
         <v>1.7190278601067064E-2</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="11">
         <f t="shared" ref="J4:J6" si="1">(F4-C4)/C4</f>
         <v>7.9439252336448676E-2</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="11">
         <f t="shared" ref="K4:K6" si="2">(G4-D4)/D4</f>
         <v>7.5917334458034417E-3</v>
       </c>
@@ -789,15 +4657,15 @@
       <c r="G5" s="4">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="11">
         <f t="shared" si="0"/>
         <v>-1.6307893020221802E-3</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="11">
         <f t="shared" si="1"/>
         <v>4.0905480540111103E-2</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="11">
         <f t="shared" si="2"/>
         <v>8.7912087912087877E-2</v>
       </c>
@@ -828,15 +4696,15 @@
       <c r="G6" s="4">
         <v>0.68459999999999999</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="11">
         <f t="shared" si="0"/>
         <v>-2.7359781121750544E-3</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="11">
         <f t="shared" si="1"/>
         <v>-1.5851000594412645E-2</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="11">
         <f t="shared" si="2"/>
         <v>-2.1300929235168013E-2</v>
       </c>
@@ -989,25 +4857,25 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="I15" s="11" t="s">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="I15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
@@ -1065,15 +4933,15 @@
       <c r="G17" s="4">
         <v>0.95899999999999996</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="11">
         <f>(E17-B17)/B17</f>
         <v>-2.4213075060532576E-2</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="11">
         <f>(F17-C17)/C17</f>
         <v>2.3364485981308431E-2</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="11">
         <f>(G17-D17)/D17</f>
         <v>-2.5406504065040674E-2</v>
       </c>
@@ -1104,15 +4972,15 @@
       <c r="G18" s="4">
         <v>0.42799999999999999</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="11">
         <f t="shared" ref="I18:I20" si="3">(E18-B18)/B18</f>
         <v>-6.0975609756097615E-3</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="11">
         <f t="shared" ref="J18:J20" si="4">(F18-C18)/C18</f>
         <v>5.3511705685618777E-2</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="11">
         <f t="shared" ref="K18:K20" si="5">(G18-D18)/D18</f>
         <v>-2.5056947608200479E-2</v>
       </c>
@@ -1143,15 +5011,15 @@
       <c r="G19" s="4">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="11">
         <f t="shared" si="3"/>
         <v>-1.929996728819109E-2</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="11">
         <f t="shared" si="4"/>
         <v>-3.5864297253634894E-2</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="11">
         <f t="shared" si="5"/>
         <v>-6.8181818181818163E-2</v>
       </c>
@@ -1182,15 +5050,15 @@
       <c r="G20" s="4">
         <v>0.68500000000000005</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="11">
         <f t="shared" si="3"/>
         <v>-1.795516925892033E-2</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="11">
         <f t="shared" si="4"/>
         <v>-3.1938325991189377E-2</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="11">
         <f t="shared" si="5"/>
         <v>-1.1686625306593559E-2</v>
       </c>
@@ -1330,27 +5198,27 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
@@ -1377,126 +5245,126 @@
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15" t="s">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
@@ -1698,15 +5566,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49C452B-2499-DA4C-AA8B-C2EEBBC555B1}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1716,7 +5584,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1724,19 +5592,19 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1744,13 +5612,13 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1777,48 +5645,48 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
+      <c r="A12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="11" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11" t="s">
+      <c r="H13" s="16"/>
+      <c r="I13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11" t="s">
+      <c r="J13" s="16"/>
+      <c r="K13" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="16"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -1905,51 +5773,51 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="A17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="20"/>
       <c r="N17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="11" t="s">
+      <c r="F18" s="18"/>
+      <c r="G18" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11" t="s">
+      <c r="H18" s="16"/>
+      <c r="I18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11" t="s">
+      <c r="J18" s="16"/>
+      <c r="K18" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="L18" s="16"/>
+      <c r="L18" s="18"/>
       <c r="N18" t="s">
         <v>35</v>
       </c>
@@ -1970,7 +5838,7 @@
       <c r="E19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="13" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -2042,22 +5910,22 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="11" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
       <c r="N22" t="s">
         <v>39</v>
       </c>
@@ -2072,8 +5940,108 @@
         <v>41</v>
       </c>
     </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="G22:L22"/>
     <mergeCell ref="A17:F17"/>
@@ -2084,17 +6052,948 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:L18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF30B74-AE2A-D049-9A62-22FB5A13AF84}">
+  <dimension ref="A1:L56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="106" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="3.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="I19" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="21"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>0.76</v>
+      </c>
+      <c r="D21">
+        <v>0.83</v>
+      </c>
+      <c r="E21">
+        <v>0.84</v>
+      </c>
+      <c r="F21">
+        <v>0.84</v>
+      </c>
+      <c r="H21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21">
+        <f>AVERAGE(C21:C30)</f>
+        <v>0.81199999999999994</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21:L21" si="0">AVERAGE(D21:D30)</f>
+        <v>0.82800000000000007</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>0.81600000000000006</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>0.78699999999999992</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>0.82</v>
+      </c>
+      <c r="D22">
+        <v>0.83</v>
+      </c>
+      <c r="E22">
+        <v>0.83</v>
+      </c>
+      <c r="F22">
+        <v>0.83</v>
+      </c>
+      <c r="H22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22">
+        <f>_xlfn.STDEV.S(C21:C30)</f>
+        <v>3.4253953543106994E-2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22:L22" si="1">_xlfn.STDEV.S(D21:D30)</f>
+        <v>1.6193277068654796E-2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>2.4129281427805113E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>0.13638589043999838</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>0.78</v>
+      </c>
+      <c r="D23">
+        <v>0.83</v>
+      </c>
+      <c r="E23">
+        <v>0.83</v>
+      </c>
+      <c r="F23">
+        <v>0.84</v>
+      </c>
+      <c r="H23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23">
+        <f>COUNT(C21:C30)</f>
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23:L23" si="2">COUNT(D21:D30)</f>
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>0.76</v>
+      </c>
+      <c r="D24">
+        <v>0.84</v>
+      </c>
+      <c r="E24">
+        <v>0.77</v>
+      </c>
+      <c r="F24">
+        <v>0.82</v>
+      </c>
+      <c r="H24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24">
+        <v>0.05</v>
+      </c>
+      <c r="J24">
+        <v>0.05</v>
+      </c>
+      <c r="K24">
+        <v>0.05</v>
+      </c>
+      <c r="L24">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>0.84</v>
+      </c>
+      <c r="D25">
+        <v>0.84</v>
+      </c>
+      <c r="E25">
+        <v>0.78</v>
+      </c>
+      <c r="F25">
+        <v>0.82</v>
+      </c>
+      <c r="H25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25">
+        <f>_xlfn.CONFIDENCE.T(I24,I22,I23)</f>
+        <v>2.4503802223859908E-2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25:L25" si="3">_xlfn.CONFIDENCE.T(J24,J22,J23)</f>
+        <v>1.1583972581358612E-2</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>1.726104810549009E-2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="3"/>
+        <v>9.7564588603211308E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>0.84</v>
+      </c>
+      <c r="D26">
+        <v>0.84</v>
+      </c>
+      <c r="E26">
+        <v>0.82</v>
+      </c>
+      <c r="F26">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>0.84</v>
+      </c>
+      <c r="D27">
+        <v>0.81</v>
+      </c>
+      <c r="E27">
+        <v>0.83</v>
+      </c>
+      <c r="F27">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>0.8</v>
+      </c>
+      <c r="D28">
+        <v>0.83</v>
+      </c>
+      <c r="E28">
+        <v>0.83</v>
+      </c>
+      <c r="F28">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>0.84</v>
+      </c>
+      <c r="D29">
+        <v>0.84</v>
+      </c>
+      <c r="E29">
+        <v>0.83</v>
+      </c>
+      <c r="F29">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>0.84</v>
+      </c>
+      <c r="D30">
+        <v>0.79</v>
+      </c>
+      <c r="E30">
+        <v>0.8</v>
+      </c>
+      <c r="F30">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C32" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="I32" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L32" s="21"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" t="s">
+        <v>70</v>
+      </c>
+      <c r="J33" t="s">
+        <v>71</v>
+      </c>
+      <c r="K33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>0.73</v>
+      </c>
+      <c r="D34" s="22">
+        <v>0.74</v>
+      </c>
+      <c r="E34">
+        <v>0.84</v>
+      </c>
+      <c r="F34">
+        <v>0.81</v>
+      </c>
+      <c r="H34" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34">
+        <f>AVERAGE(C34:C43)</f>
+        <v>0.441</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ref="J34" si="4">AVERAGE(D34:D43)</f>
+        <v>0.67125000000000012</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ref="K34" si="5">AVERAGE(E34:E43)</f>
+        <v>0.81777777777777783</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ref="L34" si="6">AVERAGE(F34:F43)</f>
+        <v>0.57000000000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>0.27</v>
+      </c>
+      <c r="D35" s="22">
+        <v>0.81</v>
+      </c>
+      <c r="E35">
+        <v>0.83</v>
+      </c>
+      <c r="F35">
+        <v>0.68</v>
+      </c>
+      <c r="H35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35">
+        <f>_xlfn.STDEV.S(C34:C43)</f>
+        <v>0.27557818007478979</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ref="J35" si="7">_xlfn.STDEV.S(D34:D43)</f>
+        <v>0.2158331035115521</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ref="K35" si="8">_xlfn.STDEV.S(E34:E43)</f>
+        <v>2.4888640871780103E-2</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ref="L35" si="9">_xlfn.STDEV.S(F34:F43)</f>
+        <v>0.28452689777164403</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>0.35</v>
+      </c>
+      <c r="D36" s="22">
+        <v>0.84</v>
+      </c>
+      <c r="E36">
+        <v>0.83</v>
+      </c>
+      <c r="F36">
+        <v>0.68</v>
+      </c>
+      <c r="H36" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36">
+        <f>COUNT(C34:C43)</f>
+        <v>10</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ref="J36" si="10">COUNT(D34:D43)</f>
+        <v>8</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ref="K36" si="11">COUNT(E34:E43)</f>
+        <v>9</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ref="L36" si="12">COUNT(F34:F43)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>0.76</v>
+      </c>
+      <c r="D37" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="E37">
+        <v>0.77</v>
+      </c>
+      <c r="F37">
+        <v>0.37</v>
+      </c>
+      <c r="H37" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37">
+        <v>0.05</v>
+      </c>
+      <c r="J37">
+        <v>0.05</v>
+      </c>
+      <c r="K37">
+        <v>0.05</v>
+      </c>
+      <c r="L37">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38">
+        <v>0.78</v>
+      </c>
+      <c r="F38">
+        <v>0.83</v>
+      </c>
+      <c r="H38" t="s">
+        <v>69</v>
+      </c>
+      <c r="I38">
+        <f>_xlfn.CONFIDENCE.T(I37,I35,I36)</f>
+        <v>0.19713675425132832</v>
+      </c>
+      <c r="J38">
+        <f>_xlfn.CONFIDENCE.T(J37,J35,J36)</f>
+        <v>0.18044099011592871</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ref="K38:L38" si="13">_xlfn.CONFIDENCE.T(K37,K35,K36)</f>
+        <v>1.9131102923312122E-2</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="13"/>
+        <v>0.20353828125535492</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>0.13</v>
+      </c>
+      <c r="D39" s="22">
+        <v>0.69</v>
+      </c>
+      <c r="E39">
+        <v>0.82</v>
+      </c>
+      <c r="F39">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>0.15</v>
+      </c>
+      <c r="D40" s="22">
+        <v>0.27</v>
+      </c>
+      <c r="E40">
+        <v>0.83</v>
+      </c>
+      <c r="F40">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>0.77</v>
+      </c>
+      <c r="D41" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="E41">
+        <v>0.83</v>
+      </c>
+      <c r="F41">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>0.39</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42">
+        <v>0.83</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>0.72</v>
+      </c>
+      <c r="D43" s="22">
+        <v>0.82</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C45" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="21"/>
+      <c r="I45" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L45" s="21"/>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+      <c r="J46" t="s">
+        <v>71</v>
+      </c>
+      <c r="K46" t="s">
+        <v>72</v>
+      </c>
+      <c r="L46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C47" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="D47" s="22">
+        <v>0.11</v>
+      </c>
+      <c r="E47" s="22">
+        <v>0.12</v>
+      </c>
+      <c r="F47" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>65</v>
+      </c>
+      <c r="I47">
+        <f>AVERAGE(C47:C56)</f>
+        <v>7.9999999999999988E-2</v>
+      </c>
+      <c r="J47">
+        <f t="shared" ref="J47" si="14">AVERAGE(D47:D56)</f>
+        <v>0.10249999999999998</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ref="K47" si="15">AVERAGE(E47:E56)</f>
+        <v>0.10888888888888888</v>
+      </c>
+      <c r="L47">
+        <f t="shared" ref="L47" si="16">AVERAGE(F47:F56)</f>
+        <v>9.6666666666666665E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C48" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="D48" s="22">
+        <v>0.11</v>
+      </c>
+      <c r="E48" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="F48" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>66</v>
+      </c>
+      <c r="I48">
+        <f>_xlfn.STDEV.S(C47:C56)</f>
+        <v>1.4142135623731044E-2</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ref="J48" si="17">_xlfn.STDEV.S(D47:D56)</f>
+        <v>1.4880476182857013E-2</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ref="K48" si="18">_xlfn.STDEV.S(E47:E56)</f>
+        <v>7.8173595997057116E-3</v>
+      </c>
+      <c r="L48">
+        <f t="shared" ref="L48" si="19">_xlfn.STDEV.S(F47:F56)</f>
+        <v>2.2360679774997946E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C49" s="22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D49" s="22">
+        <v>0.12</v>
+      </c>
+      <c r="E49" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="F49" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>67</v>
+      </c>
+      <c r="I49">
+        <f>COUNT(C47:C56)</f>
+        <v>10</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ref="J49" si="20">COUNT(D47:D56)</f>
+        <v>8</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ref="K49" si="21">COUNT(E47:E56)</f>
+        <v>9</v>
+      </c>
+      <c r="L49">
+        <f t="shared" ref="L49" si="22">COUNT(F47:F56)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C50" s="22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D50" s="22">
+        <v>0.11</v>
+      </c>
+      <c r="E50" s="22">
+        <v>0.11</v>
+      </c>
+      <c r="F50" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>68</v>
+      </c>
+      <c r="I50">
+        <v>0.05</v>
+      </c>
+      <c r="J50">
+        <v>0.05</v>
+      </c>
+      <c r="K50">
+        <v>0.05</v>
+      </c>
+      <c r="L50">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C51" s="22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D51" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="E51" s="22">
+        <v>0.11</v>
+      </c>
+      <c r="F51" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>69</v>
+      </c>
+      <c r="I51">
+        <f>_xlfn.CONFIDENCE.T(I50,I48,I49)</f>
+        <v>1.0116674383609756E-2</v>
+      </c>
+      <c r="J51">
+        <f>_xlfn.CONFIDENCE.T(J50,J48,J49)</f>
+        <v>1.244038941268109E-2</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ref="K51:L51" si="23">_xlfn.CONFIDENCE.T(K50,K48,K49)</f>
+        <v>6.0089545210997878E-3</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="23"/>
+        <v>1.7187940009040482E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C52" s="22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="F52" s="22">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C53" s="22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D53" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="E53" s="22">
+        <v>0.11</v>
+      </c>
+      <c r="F53" s="22">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C54" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" s="22">
+        <v>0.11</v>
+      </c>
+      <c r="F54" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C55" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="D55" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="E55" s="22">
+        <v>0.12</v>
+      </c>
+      <c r="F55" s="22">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C56" s="22">
+        <v>0.11</v>
+      </c>
+      <c r="D56" s="22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/0-rtt/Timing_Result.xlsx
+++ b/0-rtt/Timing_Result.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lian/Documents/UCL/Year4/FYP/topics/wclient/0-rtt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4BF0D8-02CD-F646-8814-9D3C416EBE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D5F5A1-5955-7D4F-954B-8B09879BE9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20940" activeTab="2" xr2:uid="{B5D99BAA-E045-1548-A128-4F59B72E77D0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20940" xr2:uid="{B5D99BAA-E045-1548-A128-4F59B72E77D0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,150 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="85">
-  <si>
-    <t>google.com</t>
-  </si>
-  <si>
-    <t>youtube.com</t>
-  </si>
-  <si>
-    <t>sina.com.cn</t>
-  </si>
-  <si>
-    <t>canva.com</t>
-  </si>
-  <si>
-    <t>google.com.hk</t>
-  </si>
-  <si>
-    <t>google.com.br</t>
-  </si>
-  <si>
-    <t>blogger.com</t>
-  </si>
-  <si>
-    <t>google.co.in</t>
-  </si>
-  <si>
-    <t>google.co.jp</t>
-  </si>
-  <si>
-    <t>google.de</t>
-  </si>
-  <si>
-    <t>FCP</t>
-  </si>
-  <si>
-    <t>LCP</t>
-  </si>
-  <si>
-    <t>TTI</t>
-  </si>
-  <si>
-    <t>0-RTT warm cache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">walmart.com </t>
-  </si>
-  <si>
-    <t>0-RTT cold cache</t>
-  </si>
-  <si>
-    <t>Control warm cache</t>
-  </si>
-  <si>
-    <t>Control cold cache</t>
-  </si>
-  <si>
-    <t>percentage change</t>
-  </si>
-  <si>
-    <t>cond</t>
-  </si>
-  <si>
-    <t>confidence intervel</t>
-  </si>
-  <si>
-    <t>[0.84626,0.87455]</t>
-  </si>
-  <si>
-    <t>[0.82494,0.85705]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>0RTT</t>
   </si>
   <si>
     <t>control</t>
-  </si>
-  <si>
-    <t>walmart.com</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> warm cache control</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> warm cache 0-RTT</t>
-  </si>
-  <si>
-    <t>[0.087946787582856,0.120053212417143]</t>
-  </si>
-  <si>
-    <t>[0.069883325616390,0.090116674383610]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cold cache 0-RTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cold cache control</t>
-  </si>
-  <si>
-    <t>[0.243863245748672,0.638136754251328]</t>
-  </si>
-  <si>
-    <t>[0.492390513433845,0.787609486566155]</t>
-  </si>
-  <si>
-    <t>[0.787496197776140,0.836503802223860]</t>
-  </si>
-  <si>
-    <t>[0.816416027418642,0.839583972581359]</t>
-  </si>
-  <si>
-    <t>[0.798738951894510,0.833261048105490]</t>
-  </si>
-  <si>
-    <t>[0.689435411396789,0.884564588603211]</t>
-  </si>
-  <si>
-    <t>[0.366461718744645,0.773538281255355]</t>
-  </si>
-  <si>
-    <t>[0.081900112705686,0.112099887294314]</t>
-  </si>
-  <si>
-    <t>FCP CI</t>
-  </si>
-  <si>
-    <t>LCP CI</t>
-  </si>
-  <si>
-    <t>TTI CI</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCP CI </t>
-  </si>
-  <si>
-    <t>fcp 0.76 0.82 0.78 0.76 0.84 0.84 0.84 0.8 0.84 0.84 </t>
   </si>
   <si>
     <t>lcp 0.73 0.27 0.35 0.76 0.14 0.13 0.15 0.77 0.39 0.72 </t>
@@ -298,26 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -340,7 +181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -348,126 +189,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4022,55 +3759,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>90631</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF802900-0689-D74B-B564-B10982ABED3B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10083800" y="5334000"/>
-          <a:ext cx="7772400" cy="1462231"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
@@ -4482,1587 +4170,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D59A7B-17D5-2446-8D1C-EFE0C15400D5}">
-  <dimension ref="A1:O102"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.83203125" customWidth="1"/>
-    <col min="9" max="11" width="13.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5"/>
-      <c r="B1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="I1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="I3" s="11">
-        <f>(E3-B3)/B3</f>
-        <v>8.4745762711864493E-3</v>
-      </c>
-      <c r="J3" s="11">
-        <f>(F3-C3)/C3</f>
-        <v>4.2929292929292824E-2</v>
-      </c>
-      <c r="K3" s="11">
-        <f>(G3-D3)/D3</f>
-        <v>-1.016260162601627E-3</v>
-      </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.16869999999999999</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.214</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.47420000000000001</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.1716</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.4778</v>
-      </c>
-      <c r="I4" s="11">
-        <f t="shared" ref="I4:I6" si="0">(E4-B4)/B4</f>
-        <v>1.7190278601067064E-2</v>
-      </c>
-      <c r="J4" s="11">
-        <f t="shared" ref="J4:J6" si="1">(F4-C4)/C4</f>
-        <v>7.9439252336448676E-2</v>
-      </c>
-      <c r="K4" s="11">
-        <f t="shared" ref="K4:K6" si="2">(G4-D4)/D4</f>
-        <v>7.5917334458034417E-3</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.30659999999999998</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.25180000000000002</v>
-      </c>
-      <c r="D5" s="4">
-        <v>5.4600000000000003E-2</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.30609999999999998</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.2621</v>
-      </c>
-      <c r="G5" s="4">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="I5" s="11">
-        <f t="shared" si="0"/>
-        <v>-1.6307893020221802E-3</v>
-      </c>
-      <c r="J5" s="11">
-        <f t="shared" si="1"/>
-        <v>4.0905480540111103E-2</v>
-      </c>
-      <c r="K5" s="11">
-        <f t="shared" si="2"/>
-        <v>8.7912087912087877E-2</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.87719999999999998</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.50470000000000004</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.69950000000000001</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.87480000000000002</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.49669999999999997</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.68459999999999999</v>
-      </c>
-      <c r="I6" s="11">
-        <f t="shared" si="0"/>
-        <v>-2.7359781121750544E-3</v>
-      </c>
-      <c r="J6" s="11">
-        <f t="shared" si="1"/>
-        <v>-1.5851000594412645E-2</v>
-      </c>
-      <c r="K6" s="11">
-        <f t="shared" si="2"/>
-        <v>-2.1300929235168013E-2</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.72619999999999996</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.80130000000000001</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.92849999999999999</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="I15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.876</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="I17" s="11">
-        <f>(E17-B17)/B17</f>
-        <v>-2.4213075060532576E-2</v>
-      </c>
-      <c r="J17" s="11">
-        <f>(F17-C17)/C17</f>
-        <v>2.3364485981308431E-2</v>
-      </c>
-      <c r="K17" s="11">
-        <f>(G17-D17)/D17</f>
-        <v>-2.5406504065040674E-2</v>
-      </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.439</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0.315</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="I18" s="11">
-        <f t="shared" ref="I18:I20" si="3">(E18-B18)/B18</f>
-        <v>-6.0975609756097615E-3</v>
-      </c>
-      <c r="J18" s="11">
-        <f t="shared" ref="J18:J20" si="4">(F18-C18)/C18</f>
-        <v>5.3511705685618777E-2</v>
-      </c>
-      <c r="K18" s="11">
-        <f t="shared" ref="K18:K20" si="5">(G18-D18)/D18</f>
-        <v>-2.5056947608200479E-2</v>
-      </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.30570000000000003</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.3095</v>
-      </c>
-      <c r="D19" s="4">
-        <v>5.28E-2</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.29980000000000001</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.2984</v>
-      </c>
-      <c r="G19" s="4">
-        <v>4.9200000000000001E-2</v>
-      </c>
-      <c r="I19" s="11">
-        <f t="shared" si="3"/>
-        <v>-1.929996728819109E-2</v>
-      </c>
-      <c r="J19" s="11">
-        <f t="shared" si="4"/>
-        <v>-3.5864297253634894E-2</v>
-      </c>
-      <c r="K19" s="11">
-        <f t="shared" si="5"/>
-        <v>-6.8181818181818163E-2</v>
-      </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.87439999999999996</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.54479999999999995</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.69310000000000005</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.85870000000000002</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0.52739999999999998</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="I20" s="11">
-        <f t="shared" si="3"/>
-        <v>-1.795516925892033E-2</v>
-      </c>
-      <c r="J20" s="11">
-        <f t="shared" si="4"/>
-        <v>-3.1938325991189377E-2</v>
-      </c>
-      <c r="K20" s="11">
-        <f t="shared" si="5"/>
-        <v>-1.1686625306593559E-2</v>
-      </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49C452B-2499-DA4C-AA8B-C2EEBBC555B1}">
-  <dimension ref="A1:O45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="50.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="18"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="E15" s="4">
-        <v>6.9879999999999998E-2</v>
-      </c>
-      <c r="F15" s="4">
-        <v>9.0120000000000006E-2</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0.84</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0.49</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0.79</v>
-      </c>
-      <c r="K15" s="4">
-        <v>8.7940000000000004E-2</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0.12005</v>
-      </c>
-      <c r="N15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="20"/>
-      <c r="N17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="18"/>
-      <c r="N18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.1002</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0.1138</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0.36649999999999999</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0.77349999999999997</v>
-      </c>
-      <c r="K20" s="4">
-        <v>8.1900000000000001E-2</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0.11210000000000001</v>
-      </c>
-      <c r="N20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="N22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF30B74-AE2A-D049-9A62-22FB5A13AF84}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="106" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="106" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -6079,122 +4190,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>62</v>
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>48</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>49</v>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>50</v>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>51</v>
+      <c r="A5" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>52</v>
+      <c r="A6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>53</v>
+      <c r="A7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>54</v>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>55</v>
+      <c r="A10" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>56</v>
+      <c r="A11" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>57</v>
+      <c r="A12" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>58</v>
+      <c r="A13" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>59</v>
+      <c r="A14" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>60</v>
+      <c r="A15" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>61</v>
+      <c r="A16" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C19" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="21"/>
-      <c r="I19" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="L19" s="21"/>
+      <c r="C19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
         <v>24</v>
       </c>
-      <c r="E20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" t="s">
-        <v>70</v>
-      </c>
       <c r="J20" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="K20" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="L20" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.2">
@@ -6211,7 +4322,7 @@
         <v>0.84</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="I21">
         <f>AVERAGE(C21:C30)</f>
@@ -6244,7 +4355,7 @@
         <v>0.83</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I22">
         <f>_xlfn.STDEV.S(C21:C30)</f>
@@ -6277,7 +4388,7 @@
         <v>0.84</v>
       </c>
       <c r="H23" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I23">
         <f>COUNT(C21:C30)</f>
@@ -6310,7 +4421,7 @@
         <v>0.82</v>
       </c>
       <c r="H24" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="I24">
         <v>0.05</v>
@@ -6339,7 +4450,7 @@
         <v>0.82</v>
       </c>
       <c r="H25" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="I25">
         <f>_xlfn.CONFIDENCE.T(I24,I22,I23)</f>
@@ -6429,54 +4540,54 @@
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C32" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="21"/>
-      <c r="I32" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="L32" s="21"/>
+      <c r="C32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="I32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="3"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
         <v>24</v>
       </c>
-      <c r="E33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" t="s">
-        <v>70</v>
-      </c>
       <c r="J33" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="K33" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="L33" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34">
         <v>0.73</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="2">
         <v>0.74</v>
       </c>
       <c r="E34">
@@ -6486,7 +4597,7 @@
         <v>0.81</v>
       </c>
       <c r="H34" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="I34">
         <f>AVERAGE(C34:C43)</f>
@@ -6509,7 +4620,7 @@
       <c r="C35">
         <v>0.27</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="2">
         <v>0.81</v>
       </c>
       <c r="E35">
@@ -6519,7 +4630,7 @@
         <v>0.68</v>
       </c>
       <c r="H35" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I35">
         <f>_xlfn.STDEV.S(C34:C43)</f>
@@ -6542,7 +4653,7 @@
       <c r="C36">
         <v>0.35</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="2">
         <v>0.84</v>
       </c>
       <c r="E36">
@@ -6552,7 +4663,7 @@
         <v>0.68</v>
       </c>
       <c r="H36" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I36">
         <f>COUNT(C34:C43)</f>
@@ -6575,7 +4686,7 @@
       <c r="C37">
         <v>0.76</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="2">
         <v>0.8</v>
       </c>
       <c r="E37">
@@ -6585,7 +4696,7 @@
         <v>0.37</v>
       </c>
       <c r="H37" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="I37">
         <v>0.05</v>
@@ -6604,8 +4715,8 @@
       <c r="C38">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D38" s="22" t="s">
-        <v>76</v>
+      <c r="D38" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E38">
         <v>0.78</v>
@@ -6614,7 +4725,7 @@
         <v>0.83</v>
       </c>
       <c r="H38" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="I38">
         <f>_xlfn.CONFIDENCE.T(I37,I35,I36)</f>
@@ -6637,7 +4748,7 @@
       <c r="C39">
         <v>0.13</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="2">
         <v>0.69</v>
       </c>
       <c r="E39">
@@ -6651,7 +4762,7 @@
       <c r="C40">
         <v>0.15</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="2">
         <v>0.27</v>
       </c>
       <c r="E40">
@@ -6665,7 +4776,7 @@
       <c r="C41">
         <v>0.77</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="2">
         <v>0.4</v>
       </c>
       <c r="E41">
@@ -6679,8 +4790,8 @@
       <c r="C42">
         <v>0.39</v>
       </c>
-      <c r="D42" s="22" t="s">
-        <v>77</v>
+      <c r="D42" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E42">
         <v>0.83</v>
@@ -6693,75 +4804,75 @@
       <c r="C43">
         <v>0.72</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="2">
         <v>0.82</v>
       </c>
-      <c r="E43" s="22" t="s">
-        <v>78</v>
+      <c r="E43" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F43">
         <v>0.74</v>
       </c>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C45" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F45" s="21"/>
-      <c r="I45" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="L45" s="21"/>
+      <c r="C45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="I45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L45" s="3"/>
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
         <v>24</v>
       </c>
-      <c r="E46" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" t="s">
-        <v>24</v>
-      </c>
-      <c r="I46" t="s">
-        <v>70</v>
-      </c>
       <c r="J46" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="K46" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="L46" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C47" s="22">
+      <c r="C47" s="2">
         <v>0.08</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="2">
         <v>0.11</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="2">
         <v>0.12</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="2">
         <v>0.1</v>
       </c>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="I47">
         <f>AVERAGE(C47:C56)</f>
@@ -6781,20 +4892,20 @@
       </c>
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C48" s="22">
+      <c r="C48" s="2">
         <v>0.08</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="2">
         <v>0.11</v>
       </c>
-      <c r="E48" s="22">
+      <c r="E48" s="2">
         <v>0.1</v>
       </c>
-      <c r="F48" s="22">
+      <c r="F48" s="2">
         <v>0.1</v>
       </c>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I48">
         <f>_xlfn.STDEV.S(C47:C56)</f>
@@ -6814,20 +4925,20 @@
       </c>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C49" s="22">
+      <c r="C49" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="2">
         <v>0.12</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E49" s="2">
         <v>0.1</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F49" s="2">
         <v>0.1</v>
       </c>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I49">
         <f>COUNT(C47:C56)</f>
@@ -6847,20 +4958,20 @@
       </c>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C50" s="22">
+      <c r="C50" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="2">
         <v>0.11</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E50" s="2">
         <v>0.11</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F50" s="2">
         <v>0.1</v>
       </c>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="I50">
         <v>0.05</v>
@@ -6876,20 +4987,20 @@
       </c>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C51" s="22">
+      <c r="C51" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="2">
         <v>0.1</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E51" s="2">
         <v>0.11</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F51" s="2">
         <v>0.1</v>
       </c>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="I51">
         <f>_xlfn.CONFIDENCE.T(I50,I48,I49)</f>
@@ -6909,89 +5020,89 @@
       </c>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C52" s="22">
+      <c r="C52" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D52" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" s="22">
+      <c r="D52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="2">
         <v>0.1</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F52" s="2">
         <v>0.12</v>
       </c>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C53" s="22">
+      <c r="C53" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="2">
         <v>0.1</v>
       </c>
-      <c r="E53" s="22">
+      <c r="E53" s="2">
         <v>0.11</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="2">
         <v>0.11</v>
       </c>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C54" s="22">
+      <c r="C54" s="2">
         <v>0.08</v>
       </c>
-      <c r="D54" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E54" s="22">
+      <c r="D54" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="2">
         <v>0.11</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F54" s="2">
         <v>0.1</v>
       </c>
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C55" s="22">
+      <c r="C55" s="2">
         <v>0.1</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="2">
         <v>0.1</v>
       </c>
-      <c r="E55" s="22">
+      <c r="E55" s="2">
         <v>0.12</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F55" s="2">
         <v>0.04</v>
       </c>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C56" s="22">
+      <c r="C56" s="2">
         <v>0.11</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D56" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E56" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F56" s="22" t="s">
-        <v>84</v>
+      <c r="E56" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
